--- a/documentation/bom/Basic_VCA_V1.0--BoM.xlsx
+++ b/documentation/bom/Basic_VCA_V1.0--BoM.xlsx
@@ -8,19 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="DNF" sheetId="2" r:id="rId2"/>
-    <sheet name="Colors" sheetId="3" r:id="rId3"/>
+    <sheet name="Colors" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="142">
   <si>
     <t>Row</t>
   </si>
@@ -43,6 +41,24 @@
     <t>1</t>
   </si>
   <si>
+    <t>Trimmer potentiometer, 25 turn series 3296W</t>
+  </si>
+  <si>
+    <t>Bias_adjust1 Bias_adjust2 Bias_adjust3 Bias_adjust4</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/25-turn-trimmer-potentiometer/</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Ceramic disc capacitor 50V 20%</t>
   </si>
   <si>
@@ -58,7 +74,7 @@
     <t>https://www.taydaelectronics.com/capacitors/ceramic-disc-capacitors/test-group-2.html</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>10uF Electrolytic capacitor, 2.0mm pitch, 5mm diameter</t>
@@ -73,9 +89,6 @@
     <t>https://www.taydaelectronics.com/capacitors/electrolytic-capacitors.html</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Thonkiconn jack</t>
   </si>
   <si>
@@ -85,12 +98,12 @@
     <t>CV</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>https://www.thonk.co.uk/shop/thonkiconn/</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>2.54mm pitch pin socket vertical 1x8pos</t>
   </si>
   <si>
@@ -103,7 +116,7 @@
     <t/>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>2.54mm pitch pin header vertical 1x8pos</t>
@@ -115,7 +128,16 @@
     <t>Conn_Jack</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2.54mm pitch pin socket vertical 1x4pos</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>Conn_power</t>
   </si>
   <si>
     <t>2.54mm pitch pin header vertical 1x4pos</t>
@@ -124,10 +146,7 @@
     <t>J6</t>
   </si>
   <si>
-    <t>Conn_power</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>9</t>
   </si>
   <si>
     <t>J2 J10 J15 J20</t>
@@ -136,13 +155,16 @@
     <t>In</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>J7 J11 J16 J21</t>
   </si>
   <si>
     <t>Out</t>
   </si>
   <si>
-    <t>9</t>
+    <t>11</t>
   </si>
   <si>
     <t>Eurorack 10 pin shrouded power header IDC</t>
@@ -157,7 +179,7 @@
     <t>https://www.thonk.co.uk/shop/eurorack-diy-essentials/</t>
   </si>
   <si>
-    <t>10</t>
+    <t>12</t>
   </si>
   <si>
     <t>Alpha/bourns vertical potentiometer</t>
@@ -166,13 +188,10 @@
     <t>Offset_Adjust1 Offset_Adjust2 Offset_Adjust3 Offset_Adjust4</t>
   </si>
   <si>
-    <t>100k</t>
-  </si>
-  <si>
     <t>https://www.thonk.co.uk/shop/alpha-9mm-pots/</t>
   </si>
   <si>
-    <t>11</t>
+    <t>13</t>
   </si>
   <si>
     <t>2N3904 NPN General Purpose Transistor</t>
@@ -187,7 +206,7 @@
     <t>https://www.taydaelectronics.com/2n3904-npn-general-propose-transistor.html</t>
   </si>
   <si>
-    <t>12</t>
+    <t>14</t>
   </si>
   <si>
     <t>2N3906 PNP General Purpose Transistor</t>
@@ -202,7 +221,7 @@
     <t>https://www.taydaelectronics.com/2n3906-general-propose-pnp-transistor.html</t>
   </si>
   <si>
-    <t>13</t>
+    <t>15</t>
   </si>
   <si>
     <t>2.5mm*6.8mm 1/4W 1% Metal film resistor</t>
@@ -217,7 +236,7 @@
     <t>https://www.taydaelectronics.com/resistors/1-4w-metal-film-resistors/test-group-2.html</t>
   </si>
   <si>
-    <t>14</t>
+    <t>16</t>
   </si>
   <si>
     <t>R14 R34 R54 R74</t>
@@ -226,7 +245,7 @@
     <t>470R</t>
   </si>
   <si>
-    <t>15</t>
+    <t>17</t>
   </si>
   <si>
     <t>R20 R40 R60 R80</t>
@@ -235,7 +254,7 @@
     <t>1k</t>
   </si>
   <si>
-    <t>16</t>
+    <t>18</t>
   </si>
   <si>
     <t>R4 R5 R11 R24 R25 R31 R44 R45 R51 R64 R65 R71</t>
@@ -244,7 +263,7 @@
     <t>2k</t>
   </si>
   <si>
-    <t>17</t>
+    <t>19</t>
   </si>
   <si>
     <t>R19 R39 R59 R79</t>
@@ -253,7 +272,7 @@
     <t>4.7k</t>
   </si>
   <si>
-    <t>18</t>
+    <t>20</t>
   </si>
   <si>
     <t>R9 R15 R29 R35 R49 R55 R69 R75</t>
@@ -262,7 +281,7 @@
     <t>20k</t>
   </si>
   <si>
-    <t>19</t>
+    <t>21</t>
   </si>
   <si>
     <t>R18 R38 R58 R78</t>
@@ -271,7 +290,7 @@
     <t>30k</t>
   </si>
   <si>
-    <t>20</t>
+    <t>22</t>
   </si>
   <si>
     <t>R17 R37 R57 R77</t>
@@ -280,7 +299,7 @@
     <t>47k</t>
   </si>
   <si>
-    <t>21</t>
+    <t>23</t>
   </si>
   <si>
     <t>R1 R2 R3 R6 R10 R16 R21 R22 R23 R26 R30 R36 R41 R42 R43 R46 R50 R56 R61 R62 R63 R66 R70 R76</t>
@@ -289,16 +308,13 @@
     <t>24</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>R8 R28 R48 R68</t>
   </si>
   <si>
     <t>120k</t>
   </si>
   <si>
-    <t>23</t>
+    <t>25</t>
   </si>
   <si>
     <t>R13 R33 R53 R73</t>
@@ -307,13 +323,16 @@
     <t>470k</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>R12 R32 R52 R72</t>
   </si>
   <si>
     <t>2M</t>
   </si>
   <si>
-    <t>25</t>
+    <t>27</t>
   </si>
   <si>
     <t>SPDT ON-ON toggle switch</t>
@@ -328,19 +347,13 @@
     <t>https://www.thonk.co.uk/shop/mini-toggle-switches/</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Trimmer potentiometer, 25 turn series 3296W</t>
+    <t>28</t>
   </si>
   <si>
     <t>Trim1 Trim2 Trim3 Trim4</t>
   </si>
   <si>
-    <t>https://www.thonk.co.uk/shop/25-turn-trimmer-potentiometer/</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t>29</t>
   </si>
   <si>
     <t>Dual Transconductance Amplifiers</t>
@@ -355,7 +368,7 @@
     <t>https://eu.mouser.com/c/semiconductors/amplifier-ics/transconductance-amplifiers/?series=LM13700</t>
   </si>
   <si>
-    <t>28</t>
+    <t>30</t>
   </si>
   <si>
     <t>Quad Op-Amp</t>
@@ -412,22 +425,10 @@
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>136 (0 SMD/ 132 THT)</t>
-  </si>
-  <si>
     <t>Number of PCBs:</t>
   </si>
   <si>
     <t>Total Components:</t>
-  </si>
-  <si>
-    <t>Bias_adjust1 Bias_adjust2 Bias_adjust3 Bias_adjust4</t>
-  </si>
-  <si>
-    <t>2.54mm pitch pin socket vertical 1x4pos</t>
-  </si>
-  <si>
-    <t>J4</t>
   </si>
   <si>
     <t>Columns colors</t>
@@ -532,13 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -906,7 +907,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="32" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -916,13 +917,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D2" s="3">
         <v>30</v>
@@ -930,41 +931,41 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -972,16 +973,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D6" s="3">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1004,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1038,27 +1039,27 @@
         <v>15</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>22</v>
@@ -1066,7 +1067,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>23</v>
@@ -1078,9 +1079,9 @@
         <v>25</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1098,90 +1099,90 @@
         <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1189,107 +1190,107 @@
         <v>45</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="D20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="E22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>69</v>
@@ -1298,198 +1299,198 @@
         <v>70</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>99</v>
@@ -1498,70 +1499,110 @@
         <v>100</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1">
+      <c r="A34" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8" t="s">
+      <c r="B34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="D34" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="E34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="E35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D37" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>44</v>
+      <c r="F37" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1569,11 +1610,11 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1"/>
-    <hyperlink ref="D20" r:id="rId2"/>
-    <hyperlink ref="D33" r:id="rId3"/>
-    <hyperlink ref="D35" r:id="rId4"/>
-    <hyperlink ref="D36" r:id="rId5"/>
+    <hyperlink ref="D21" r:id="rId1"/>
+    <hyperlink ref="D22" r:id="rId2"/>
+    <hyperlink ref="D35" r:id="rId3"/>
+    <hyperlink ref="D37" r:id="rId4"/>
+    <hyperlink ref="D38" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -1581,174 +1622,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="60.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="32" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="3">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1761,27 +1634,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
-        <v>140</v>
+      <c r="A5" s="11" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
